--- a/KetQuaTest_ProductVariantsManagerServlet.xlsx
+++ b/KetQuaTest_ProductVariantsManagerServlet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -35,74 +35,97 @@
     <t>Trạng Thái</t>
   </si>
   <si>
+    <t>VAR_MGR_06</t>
+  </si>
+  <si>
+    <t>Lỗi hệ thống (Exception)</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Service ném lỗi</t>
+  </si>
+  <si>
+    <t>Catch &amp; Handle List</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>VAR_MGR_02</t>
+  </si>
+  <si>
+    <t>Hiện form sửa biến thể</t>
+  </si>
+  <si>
+    <t>ID=5</t>
+  </si>
+  <si>
+    <t>Action='AddOrEdit', ID=5</t>
+  </si>
+  <si>
+    <t>Forward JSP</t>
+  </si>
+  <si>
     <t>VAR_MGR_03</t>
   </si>
   <si>
-    <t>Lưu biến thể mới</t>
-  </si>
-  <si>
-    <t>1. Action='SaveOrUpdate'
-2. Params đầy đủ</t>
-  </si>
-  <si>
-    <t>PID=1, Size=2, Stock=10, Price=200</t>
-  </si>
-  <si>
-    <t>Call Service Save -&gt; Redirect</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>VAR_MGR_02</t>
-  </si>
-  <si>
-    <t>Hiện form sửa biến thể</t>
-  </si>
-  <si>
-    <t>1. Action='AddOrEdit', ID=5
-2. Service trả Variant</t>
-  </si>
-  <si>
-    <t>ID=5</t>
-  </si>
-  <si>
-    <t>Forward ProductVariantsManager.jsp</t>
+    <t>Lưu biến thể mới (Không trùng)</t>
+  </si>
+  <si>
+    <t>Insert</t>
+  </si>
+  <si>
+    <t>ID=0, CheckExist=Null</t>
+  </si>
+  <si>
+    <t>Redirect List</t>
+  </si>
+  <si>
+    <t>VAR_MGR_05</t>
+  </si>
+  <si>
+    <t>Xóa biến thể</t>
+  </si>
+  <si>
+    <t>ID=10</t>
+  </si>
+  <si>
+    <t>Action='Delete', ID=10</t>
   </si>
   <si>
     <t>VAR_MGR_01</t>
   </si>
   <si>
-    <t>Xem danh sách biến thể</t>
-  </si>
-  <si>
-    <t>1. Action='List'
-2. Service trả list</t>
-  </si>
-  <si>
-    <t>List size=1</t>
-  </si>
-  <si>
-    <t>Forward View-product-variants.jsp</t>
+    <t>Phân trang biến thể</t>
+  </si>
+  <si>
+    <t>Page 2</t>
+  </si>
+  <si>
+    <t>Data=20, Page=2</t>
+  </si>
+  <si>
+    <t>Cắt list 8-&gt;16</t>
   </si>
   <si>
     <t>VAR_MGR_04</t>
   </si>
   <si>
-    <t>Xóa biến thể</t>
-  </si>
-  <si>
-    <t>1. Action='Delete'
-2. ID=10</t>
-  </si>
-  <si>
-    <t>ID=10</t>
-  </si>
-  <si>
-    <t>Call Service Delete -&gt; Redirect</t>
+    <t>Lưu trùng -&gt; Cộng dồn</t>
+  </si>
+  <si>
+    <t>Input Stock=10</t>
+  </si>
+  <si>
+    <t>ID=0, CheckExist=True(Stock=5)</t>
+  </si>
+  <si>
+    <t>Update ID cũ, Stock=15</t>
   </si>
 </sst>
 </file>
@@ -180,17 +203,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.63671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.44140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="25.4765625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="32.16015625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="34.5859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.19921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.45703125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="29.25390625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="21.84375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="16.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
   </cols>
@@ -301,12 +324,58 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s" s="2">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s" s="2">
         <v>13</v>
       </c>
     </row>
